--- a/output/a-bfs-results.xlsx
+++ b/output/a-bfs-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddffad9aba1e171b/Documents/GitHub/rush-hour-puzzle/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AF7439-4849-4F03-BC42-F8E4CDBCFE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D6AF7439-4849-4F03-BC42-F8E4CDBCFE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31331080-9D6B-4E81-BB23-0CED55E24835}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{30F084F7-05DC-4338-9200-78220A95396F}"/>
+    <workbookView minimized="1" xWindow="39870" yWindow="8910" windowWidth="21600" windowHeight="12495" xr2:uid="{30F084F7-05DC-4338-9200-78220A95396F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,20 +116,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>node(探索した盤面数)</t>
+    <t>A*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node(探索したノード数)</t>
     <rPh sb="5" eb="7">
       <t>タンサク</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="12" eb="13">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,55 +364,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +732,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B2" sqref="B2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -745,500 +742,500 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="2"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>150</v>
+      </c>
+      <c r="D4" s="3">
+        <v>125</v>
+      </c>
+      <c r="E4" s="10">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1883</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1328</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>308</v>
+      </c>
+      <c r="D6" s="3">
+        <v>307</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>6620</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1092</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10">
+        <v>196</v>
+      </c>
+      <c r="H8" s="6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45</v>
+      </c>
+      <c r="E9" s="10">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1236</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>370</v>
+      </c>
+      <c r="D10" s="3">
+        <v>567</v>
+      </c>
+      <c r="E10" s="10">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8196</v>
+      </c>
+      <c r="H10" s="6">
+        <v>11941</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3">
+        <v>126</v>
+      </c>
+      <c r="E11" s="10">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2275</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3">
+        <v>127</v>
+      </c>
+      <c r="E12" s="10">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2328</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10">
+        <v>163</v>
+      </c>
+      <c r="H13" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1232</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3">
+        <v>57</v>
+      </c>
+      <c r="E15" s="10">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1316</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>91</v>
+      </c>
+      <c r="D16" s="3">
+        <v>143</v>
+      </c>
+      <c r="E16" s="10">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2711</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="F17" s="3">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10">
+        <v>657</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1302</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3">
+        <v>131</v>
+      </c>
+      <c r="E19" s="10">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F19" s="3">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2030</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3">
+        <v>122</v>
+      </c>
+      <c r="E20" s="10">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2026</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10">
+        <v>720</v>
+      </c>
+      <c r="H21" s="6">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2210</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1873</v>
+      </c>
+      <c r="E22" s="10">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10">
+        <v>37095</v>
+      </c>
+      <c r="H22" s="6">
+        <v>39653</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
-        <v>150</v>
-      </c>
-      <c r="D4" s="5">
-        <v>125</v>
-      </c>
-      <c r="E4" s="16">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1883</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16">
-        <v>70</v>
-      </c>
-      <c r="D5" s="5">
-        <v>73</v>
-      </c>
-      <c r="E5" s="16">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5">
-        <v>23</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1328</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16">
-        <v>308</v>
-      </c>
-      <c r="D6" s="5">
-        <v>307</v>
-      </c>
-      <c r="E6" s="16">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
-        <v>6620</v>
-      </c>
-      <c r="H6" s="8">
-        <v>7159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45</v>
-      </c>
-      <c r="E7" s="16">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1092</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5">
-        <v>11</v>
-      </c>
-      <c r="G8" s="16">
-        <v>196</v>
-      </c>
-      <c r="H8" s="8">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45</v>
-      </c>
-      <c r="E9" s="16">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5">
-        <v>16</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1236</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
-        <v>370</v>
-      </c>
-      <c r="D10" s="5">
-        <v>567</v>
-      </c>
-      <c r="E10" s="16">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <v>11</v>
-      </c>
-      <c r="G10" s="16">
-        <v>8196</v>
-      </c>
-      <c r="H10" s="8">
-        <v>11941</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>88</v>
-      </c>
-      <c r="D11" s="5">
-        <v>126</v>
-      </c>
-      <c r="E11" s="16">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>11</v>
-      </c>
-      <c r="G11" s="16">
-        <v>2275</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16">
-        <v>91</v>
-      </c>
-      <c r="D12" s="5">
-        <v>127</v>
-      </c>
-      <c r="E12" s="16">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5">
-        <v>11</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2328</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="16">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5">
-        <v>23</v>
-      </c>
-      <c r="G13" s="16">
-        <v>163</v>
-      </c>
-      <c r="H13" s="8">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5">
-        <v>36</v>
-      </c>
-      <c r="E14" s="16">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5">
-        <v>23</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1232</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5">
-        <v>57</v>
-      </c>
-      <c r="E15" s="16">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5">
-        <v>23</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1316</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="16">
-        <v>91</v>
-      </c>
-      <c r="D16" s="5">
-        <v>143</v>
-      </c>
-      <c r="E16" s="16">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5">
-        <v>24</v>
-      </c>
-      <c r="G16" s="16">
-        <v>2711</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5">
-        <v>40</v>
-      </c>
-      <c r="E17" s="16">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5">
-        <v>24</v>
-      </c>
-      <c r="G17" s="16">
-        <v>657</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="16">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5">
-        <v>52</v>
-      </c>
-      <c r="E18" s="16">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5">
-        <v>24</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1302</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5">
-        <v>131</v>
-      </c>
-      <c r="E19" s="16">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5">
-        <v>24</v>
-      </c>
-      <c r="G19" s="16">
-        <v>2030</v>
-      </c>
-      <c r="H19" s="8">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="16">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5">
-        <v>122</v>
-      </c>
-      <c r="E20" s="16">
-        <v>26</v>
-      </c>
-      <c r="F20" s="5">
-        <v>24</v>
-      </c>
-      <c r="G20" s="16">
-        <v>2026</v>
-      </c>
-      <c r="H20" s="8">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16">
-        <v>26</v>
-      </c>
-      <c r="F21" s="5">
-        <v>24</v>
-      </c>
-      <c r="G21" s="16">
-        <v>720</v>
-      </c>
-      <c r="H21" s="8">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2210</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1873</v>
-      </c>
-      <c r="E22" s="16">
-        <v>29</v>
-      </c>
-      <c r="F22" s="5">
-        <v>24</v>
-      </c>
-      <c r="G22" s="16">
-        <v>37095</v>
-      </c>
-      <c r="H22" s="8">
-        <v>39653</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14">
-        <v>27</v>
-      </c>
-      <c r="D23" s="6">
-        <v>36</v>
-      </c>
-      <c r="E23" s="14">
-        <v>25</v>
-      </c>
-      <c r="F23" s="6">
-        <v>24</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="F23" s="4">
+        <v>24</v>
+      </c>
+      <c r="G23" s="8">
         <v>1077</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>1388</v>
       </c>
     </row>
